--- a/vip.xlsx
+++ b/vip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\go\excel\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED8D1B-8B4F-4B70-8703-4E082A13EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209F77D-08E7-4730-A31A-159465D2E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="720" windowWidth="24135" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33330" yWindow="990" windowWidth="24135" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>作者:
 对于VIP等级</t>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>[{1,3}]</t>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
@@ -110,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,124 +463,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>60</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>300</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>600</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>301</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/vip.xlsx
+++ b/vip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\go\excel\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209F77D-08E7-4730-A31A-159465D2E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AB7A4-B7AF-413E-A077-1B092B5856AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="990" windowWidth="24135" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32520" yWindow="1005" windowWidth="24135" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>作者:
 对于VIP等级</t>
@@ -74,12 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1,3]</t>
-  </si>
-  <si>
-    <t>[{1,3}]</t>
-  </si>
-  <si>
     <t>KR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,6 +86,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>id2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,7 +98,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
+    <t>[{1,3},
+{2,4}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,3,
+4,6]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,24 +134,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -168,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -176,13 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,7 +455,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,13 +476,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -508,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -522,10 +511,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -539,7 +528,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
@@ -556,7 +545,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -571,9 +560,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>13</v>
@@ -584,13 +573,13 @@
       <c r="D7" s="2">
         <v>1600</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>14</v>
@@ -601,15 +590,14 @@
       <c r="D8" s="2">
         <v>2200</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -629,14 +617,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -651,9 +638,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>302</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
